--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/n2-back/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/condition 1/n2-back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047A1E6A-5317-FC42-AAB6-D63A3803C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C019B0C9-62C9-834D-9601-F1B50BA5AE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12500" yWindow="1440" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>ordre</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1078,7 +1081,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C59">
         <v>0</v>
